--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nes.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nes.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6366.916999999999</v>
+        <v>6296.551000000001</v>
       </c>
       <c r="C2">
-        <v>4822.276999999999</v>
+        <v>4640.376000000001</v>
       </c>
       <c r="D2">
-        <v>605</v>
+        <v>735</v>
       </c>
       <c r="E2">
-        <v>10151.821</v>
+        <v>10360.611200000001</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>115.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5254.381338246263</v>
+        <v>5421.605305681933</v>
       </c>
       <c r="I2">
         <v>64</v>
       </c>
       <c r="J2">
-        <v>1723710</v>
+        <v>1745314</v>
       </c>
       <c r="K2">
         <v>51</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6489.9875</v>
+        <v>6553.4915</v>
       </c>
       <c r="C3">
-        <v>4834.1185</v>
+        <v>4875.2895</v>
       </c>
       <c r="D3">
-        <v>728</v>
+        <v>662</v>
       </c>
       <c r="E3">
-        <v>10175.412</v>
+        <v>10451.875849999999</v>
       </c>
       <c r="F3">
-        <v>120.5</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5337.268508044072</v>
+        <v>5620.888552763042</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>1725110</v>
+        <v>1744765</v>
       </c>
       <c r="K3">
         <v>51</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6447.8845</v>
+        <v>6591.086500000001</v>
       </c>
       <c r="C4">
-        <v>4802.712</v>
+        <v>4915.289499999999</v>
       </c>
       <c r="D4">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="E4">
-        <v>10134.935000000001</v>
+        <v>10601.931700000001</v>
       </c>
       <c r="F4">
-        <v>113</v>
+        <v>185.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5152.568126399488</v>
+        <v>5373.672023608579</v>
       </c>
       <c r="I4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4">
-        <v>1708720</v>
+        <v>1745641</v>
       </c>
       <c r="K4">
         <v>51</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6447.8845</v>
+        <v>6553.4915</v>
       </c>
       <c r="C5">
-        <v>4822.276999999999</v>
+        <v>4875.2895</v>
       </c>
       <c r="D5">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="E5">
-        <v>10151.821</v>
+        <v>10451.875849999999</v>
       </c>
       <c r="F5">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5254.381338246263</v>
+        <v>5421.605305681933</v>
       </c>
       <c r="I5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5">
-        <v>1723710</v>
+        <v>1745314</v>
       </c>
       <c r="K5">
         <v>51</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>128325</v>
+        <v>128291</v>
       </c>
       <c r="F2">
-        <v>127955</v>
+        <v>127921</v>
       </c>
       <c r="G2">
-        <v>0.037318578224999996</v>
+        <v>0.037308690582999994</v>
       </c>
       <c r="H2">
-        <v>0.049158920655</v>
+        <v>0.0491458958874</v>
       </c>
     </row>
     <row r="3">
@@ -865,16 +865,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E11">
-        <v>114247</v>
+        <v>114189</v>
       </c>
       <c r="F11">
         <v>113563</v>
       </c>
       <c r="G11">
-        <v>0.033224512810999994</v>
+        <v>0.033207645657</v>
       </c>
       <c r="H11">
-        <v>0.043765900705800005</v>
+        <v>0.043743681984600005</v>
       </c>
     </row>
     <row r="12">
@@ -1125,16 +1125,16 @@
         <v>application/json</v>
       </c>
       <c r="E21">
-        <v>35943</v>
+        <v>49361</v>
       </c>
       <c r="F21">
-        <v>503644</v>
+        <v>727739</v>
       </c>
       <c r="G21">
-        <v>0.010452691658999999</v>
+        <v>0.014354820492999998</v>
       </c>
       <c r="H21">
-        <v>0.013769094760200003</v>
+        <v>0.018909280985399998</v>
       </c>
     </row>
     <row r="22">
@@ -1203,16 +1203,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>17100</v>
+        <v>17337</v>
       </c>
       <c r="F24">
         <v>16756</v>
       </c>
       <c r="G24">
-        <v>0.004972902299999999</v>
+        <v>0.005041824980999999</v>
       </c>
       <c r="H24">
-        <v>0.0065506919400000006</v>
+        <v>0.0066414822318</v>
       </c>
     </row>
     <row r="25">
@@ -1229,16 +1229,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>14981</v>
+        <v>15209</v>
       </c>
       <c r="F25">
         <v>14637</v>
       </c>
       <c r="G25">
-        <v>0.004356669552999999</v>
+        <v>0.004422974916999999</v>
       </c>
       <c r="H25">
-        <v>0.0057389424534</v>
+        <v>0.0058262850126</v>
       </c>
     </row>
     <row r="26">
@@ -1255,16 +1255,16 @@
         <v>text/css</v>
       </c>
       <c r="E26">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F26">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G26">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H26">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="27">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1182&amp;luid=c954879b-75b7-5bdc-50ed-7328e9c6e7a3&amp;dnt=true&amp;prev=c48690bd-78a1-a584-5bbd-805e4e2f9283&amp;rnd=24474</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1315&amp;luid=8c069cd8-e054-f1d8-acf6-37d4a9a2fc67&amp;dnt=true&amp;prev=48d007ee-e5de-8896-4cd8-049a0c975117&amp;rnd=95156</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1512,16 +1512,16 @@
         <v>text/plain</v>
       </c>
       <c r="E36">
-        <v>37062</v>
+        <v>37009</v>
       </c>
       <c r="F36">
-        <v>36808</v>
+        <v>36755</v>
       </c>
       <c r="G36">
-        <v>0.010778111406</v>
+        <v>0.010762698316999999</v>
       </c>
       <c r="H36">
-        <v>0.0141977628468</v>
+        <v>0.0141774595326</v>
       </c>
     </row>
     <row r="37">
@@ -1587,16 +1587,16 @@
         <v>text/css</v>
       </c>
       <c r="E39">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F39">
         <v>1524</v>
       </c>
       <c r="G39">
-        <v>0.00019077332799999997</v>
+        <v>0.00019135495399999998</v>
       </c>
       <c r="H39">
-        <v>0.00025130139840000005</v>
+        <v>0.0002520675612</v>
       </c>
     </row>
     <row r="40">
@@ -1639,16 +1639,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E41">
-        <v>84658</v>
+        <v>84635</v>
       </c>
       <c r="F41">
         <v>269363</v>
       </c>
       <c r="G41">
-        <v>0.024619646953999996</v>
+        <v>0.024612958254999998</v>
       </c>
       <c r="H41">
-        <v>0.03243090516120001</v>
+        <v>0.032422094289</v>
       </c>
     </row>
     <row r="42">
@@ -1691,16 +1691,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E43">
-        <v>171208</v>
+        <v>171231</v>
       </c>
       <c r="F43">
         <v>519614</v>
       </c>
       <c r="G43">
-        <v>0.04978951210399999</v>
+        <v>0.04979620080299999</v>
       </c>
       <c r="H43">
-        <v>0.0655866003312</v>
+        <v>0.06559541120340001</v>
       </c>
     </row>
     <row r="44">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_8054_1323462261.jpeg%26dh%3D600%26dw%3D800%26cropX%3D0%26cropY%3D991%26cropH%3D621%26cropW%3D828</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D172BFA4F9EFF52996F54D4A85A1B06B1A77A69A9_1588283658.jpg%26dh%3D404%26dw%3D800</v>
       </c>
       <c r="C50" t="str">
         <v>Image</v>
@@ -1873,16 +1873,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E50">
-        <v>15629</v>
+        <v>32234</v>
       </c>
       <c r="F50">
-        <v>15289</v>
+        <v>31658</v>
       </c>
       <c r="G50">
-        <v>0.004545116376999999</v>
+        <v>0.009374066241999999</v>
       </c>
       <c r="H50">
-        <v>0.0059871792006000015</v>
+        <v>0.0123482458476</v>
       </c>
     </row>
     <row r="51">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D837DFFC190DA62C4E4432CF6331E5F81DB7CF72D_1983607418.jpg%26dh%3D517%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFP_historielaget_utvandring_1826371953.png%26dh%3D189%26dw%3D392</v>
       </c>
       <c r="C51" t="str">
         <v>Image</v>
@@ -1899,16 +1899,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E51">
-        <v>24927</v>
+        <v>19048</v>
       </c>
       <c r="F51">
-        <v>24579</v>
+        <v>18473</v>
       </c>
       <c r="G51">
-        <v>0.007249095650999999</v>
+        <v>0.005539406023999999</v>
       </c>
       <c r="H51">
-        <v>0.009549070057800002</v>
+        <v>0.007296934507200002</v>
       </c>
     </row>
     <row r="52">
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFP_historielaget_utvandring_1826371953.png%26dh%3D189%26dw%3D392</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_8054_1323462261.jpeg%26dh%3D600%26dw%3D800%26cropX%3D0%26cropY%3D991%26cropH%3D621%26cropW%3D828</v>
       </c>
       <c r="C52" t="str">
         <v>Image</v>
@@ -1925,16 +1925,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E52">
-        <v>18835</v>
+        <v>15856</v>
       </c>
       <c r="F52">
-        <v>18473</v>
+        <v>15289</v>
       </c>
       <c r="G52">
-        <v>0.005477462854999999</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H52">
-        <v>0.007215338169</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
     <row r="53">
@@ -1951,16 +1951,16 @@
         <v>text/html</v>
       </c>
       <c r="E53">
-        <v>128325</v>
+        <v>128291</v>
       </c>
       <c r="F53">
-        <v>127955</v>
+        <v>127921</v>
       </c>
       <c r="G53">
-        <v>0.037318578224999996</v>
+        <v>0.037308690582999994</v>
       </c>
       <c r="H53">
-        <v>0.049158920655</v>
+        <v>0.0491458958874</v>
       </c>
     </row>
     <row r="54">
@@ -2442,16 +2442,16 @@
         <v>application/json</v>
       </c>
       <c r="E72">
-        <v>35943</v>
+        <v>49361</v>
       </c>
       <c r="F72">
-        <v>503644</v>
+        <v>727739</v>
       </c>
       <c r="G72">
-        <v>0.010452691658999999</v>
+        <v>0.014354820492999998</v>
       </c>
       <c r="H72">
-        <v>0.013769094760200003</v>
+        <v>0.018909280985399998</v>
       </c>
     </row>
     <row r="73">
@@ -2468,16 +2468,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E73">
-        <v>13621</v>
+        <v>13618</v>
       </c>
       <c r="F73">
         <v>45188</v>
       </c>
       <c r="G73">
-        <v>0.003961163873</v>
+        <v>0.0039602914339999995</v>
       </c>
       <c r="H73">
-        <v>0.005217951749400001</v>
+        <v>0.0052168025052</v>
       </c>
     </row>
     <row r="74">
@@ -2520,16 +2520,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>17337</v>
+        <v>17336</v>
       </c>
       <c r="F75">
         <v>16756</v>
       </c>
       <c r="G75">
-        <v>0.005041824980999999</v>
+        <v>0.005041534168</v>
       </c>
       <c r="H75">
-        <v>0.0066414822318</v>
+        <v>0.006641099150400001</v>
       </c>
     </row>
     <row r="76">
@@ -2572,16 +2572,16 @@
         <v>text/css</v>
       </c>
       <c r="E77">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F77">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G77">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H77">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="78">
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1289&amp;luid=df341468-f0e3-363a-2312-c0ae543cfcbb&amp;dnt=true&amp;prev=1f3231f5-9471-1340-39c1-fbb9f711f365&amp;rnd=73329</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1262&amp;luid=d37ac98e-9b0c-6743-8180-8e1d1f7e4a1f&amp;dnt=true&amp;prev=e30a8638-62d4-cef3-2a85-abda0bed8a24&amp;rnd=27959</v>
       </c>
       <c r="C79" t="str">
         <v>Image</v>
@@ -2829,16 +2829,16 @@
         <v>text/plain</v>
       </c>
       <c r="E87">
-        <v>37062</v>
+        <v>37009</v>
       </c>
       <c r="F87">
-        <v>36808</v>
+        <v>36755</v>
       </c>
       <c r="G87">
-        <v>0.010778111406</v>
+        <v>0.010762698316999999</v>
       </c>
       <c r="H87">
-        <v>0.0141977628468</v>
+        <v>0.0141774595326</v>
       </c>
     </row>
     <row r="88">
@@ -2904,16 +2904,16 @@
         <v>text/css</v>
       </c>
       <c r="E90">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="F90">
         <v>1524</v>
       </c>
       <c r="G90">
-        <v>0.00019077332799999997</v>
+        <v>0.00016285528</v>
       </c>
       <c r="H90">
-        <v>0.00025130139840000005</v>
+        <v>0.00021452558400000002</v>
       </c>
     </row>
     <row r="91">
@@ -2930,16 +2930,16 @@
         <v>text/css</v>
       </c>
       <c r="E91">
-        <v>3296</v>
+        <v>3230</v>
       </c>
       <c r="F91">
         <v>12720</v>
       </c>
       <c r="G91">
-        <v>0.0009585196479999999</v>
+        <v>0.0009393259899999999</v>
       </c>
       <c r="H91">
-        <v>0.0012626362944000002</v>
+        <v>0.0012373529220000002</v>
       </c>
     </row>
     <row r="92">
@@ -2956,16 +2956,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E92">
-        <v>84658</v>
+        <v>84535</v>
       </c>
       <c r="F92">
         <v>269363</v>
       </c>
       <c r="G92">
-        <v>0.024619646953999996</v>
+        <v>0.024583876954999997</v>
       </c>
       <c r="H92">
-        <v>0.03243090516120001</v>
+        <v>0.032383786149000005</v>
       </c>
     </row>
     <row r="93">
@@ -2982,16 +2982,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E93">
-        <v>8046</v>
+        <v>7980</v>
       </c>
       <c r="F93">
         <v>24811</v>
       </c>
       <c r="G93">
-        <v>0.002339881398</v>
+        <v>0.0023206877399999997</v>
       </c>
       <c r="H93">
-        <v>0.0030822729444</v>
+        <v>0.003056989572</v>
       </c>
     </row>
     <row r="94">
@@ -3008,16 +3008,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E94">
-        <v>171208</v>
+        <v>171076</v>
       </c>
       <c r="F94">
         <v>519614</v>
       </c>
       <c r="G94">
-        <v>0.04978951210399999</v>
+        <v>0.04975112478799999</v>
       </c>
       <c r="H94">
-        <v>0.0655866003312</v>
+        <v>0.06553603358640002</v>
       </c>
     </row>
     <row r="95">
@@ -3034,16 +3034,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E95">
-        <v>1447</v>
+        <v>1381</v>
       </c>
       <c r="F95">
         <v>8077</v>
       </c>
       <c r="G95">
-        <v>0.00042080641099999995</v>
+        <v>0.00040161275299999995</v>
       </c>
       <c r="H95">
-        <v>0.0005543187858000001</v>
+        <v>0.0005290354134000001</v>
       </c>
     </row>
     <row r="96">
@@ -3060,16 +3060,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E96">
-        <v>25906</v>
+        <v>25832</v>
       </c>
       <c r="F96">
         <v>85399</v>
       </c>
       <c r="G96">
-        <v>0.007533801577999998</v>
+        <v>0.007512281415999999</v>
       </c>
       <c r="H96">
-        <v>0.0099241067484</v>
+        <v>0.0098957587248</v>
       </c>
     </row>
     <row r="97">
@@ -3086,16 +3086,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E97">
-        <v>6119</v>
+        <v>6030</v>
       </c>
       <c r="F97">
         <v>18740</v>
       </c>
       <c r="G97">
-        <v>0.0017794847469999998</v>
+        <v>0.0017536023899999997</v>
       </c>
       <c r="H97">
-        <v>0.0023440750866000003</v>
+        <v>0.0023099808419999998</v>
       </c>
     </row>
     <row r="98">
@@ -3112,16 +3112,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>6788</v>
+        <v>6699</v>
       </c>
       <c r="F98">
         <v>17311</v>
       </c>
       <c r="G98">
-        <v>0.0019740386439999996</v>
+        <v>0.0019481562869999999</v>
       </c>
       <c r="H98">
-        <v>0.0026003565432</v>
+        <v>0.0025662622986</v>
       </c>
     </row>
     <row r="99">
@@ -3138,16 +3138,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E99">
-        <v>1126</v>
+        <v>1060</v>
       </c>
       <c r="F99">
         <v>3352</v>
       </c>
       <c r="G99">
-        <v>0.0003274554379999999</v>
+        <v>0.00030826177999999997</v>
       </c>
       <c r="H99">
-        <v>0.0004313496564000001</v>
+        <v>0.00040606628399999996</v>
       </c>
     </row>
     <row r="100">
@@ -3155,25 +3155,25 @@
         <v>2</v>
       </c>
       <c r="B100" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_8054_1323462261.jpeg%26dh%3D600%26dw%3D800%26cropX%3D0%26cropY%3D991%26cropH%3D621%26cropW%3D828</v>
+        <v>https://www.nes.kommune.no/siteassets/30-bilder/logoer/nes_favicon.ico</v>
       </c>
       <c r="C100" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D100" t="str">
-        <v>image/jpeg</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E100">
-        <v>15856</v>
+        <v>1524</v>
       </c>
       <c r="F100">
-        <v>15289</v>
+        <v>1150</v>
       </c>
       <c r="G100">
-        <v>0.0046111309279999995</v>
+        <v>0.000443199012</v>
       </c>
       <c r="H100">
-        <v>0.006074138678400001</v>
+        <v>0.0005838160536</v>
       </c>
     </row>
     <row r="101">
@@ -3181,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="B101" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D837DFFC190DA62C4E4432CF6331E5F81DB7CF72D_1983607418.jpg%26dh%3D517%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D172BFA4F9EFF52996F54D4A85A1B06B1A77A69A9_1588283658.jpg%26dh%3D404%26dw%3D800</v>
       </c>
       <c r="C101" t="str">
         <v>Image</v>
@@ -3190,16 +3190,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>25155</v>
+        <v>32233</v>
       </c>
       <c r="F101">
-        <v>24579</v>
+        <v>31658</v>
       </c>
       <c r="G101">
-        <v>0.007315401014999999</v>
+        <v>0.009373775429</v>
       </c>
       <c r="H101">
-        <v>0.009636412617</v>
+        <v>0.012347862766200002</v>
       </c>
     </row>
     <row r="102">
@@ -3233,25 +3233,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.nes.kommune.no/siteassets/30-bilder/logoer/nes_favicon.ico</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_8054_1323462261.jpeg%26dh%3D600%26dw%3D800%26cropX%3D0%26cropY%3D991%26cropH%3D621%26cropW%3D828</v>
       </c>
       <c r="C103" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D103" t="str">
-        <v>image/x-icon</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>1524</v>
+        <v>15856</v>
       </c>
       <c r="F103">
-        <v>1150</v>
+        <v>15289</v>
       </c>
       <c r="G103">
-        <v>0.000443199012</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H103">
-        <v>0.0005838160536</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
     <row r="104">
@@ -3268,16 +3268,16 @@
         <v>text/html</v>
       </c>
       <c r="E104">
-        <v>128325</v>
+        <v>128291</v>
       </c>
       <c r="F104">
-        <v>127955</v>
+        <v>127921</v>
       </c>
       <c r="G104">
-        <v>0.037318578224999996</v>
+        <v>0.037308690582999994</v>
       </c>
       <c r="H104">
-        <v>0.049158920655</v>
+        <v>0.0491458958874</v>
       </c>
     </row>
     <row r="105">
@@ -3759,16 +3759,16 @@
         <v>application/json</v>
       </c>
       <c r="E123">
-        <v>35943</v>
+        <v>49361</v>
       </c>
       <c r="F123">
-        <v>503644</v>
+        <v>727739</v>
       </c>
       <c r="G123">
-        <v>0.010452691658999999</v>
+        <v>0.014354820492999998</v>
       </c>
       <c r="H123">
-        <v>0.013769094760200003</v>
+        <v>0.018909280985399998</v>
       </c>
     </row>
     <row r="124">
@@ -3785,16 +3785,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E124">
-        <v>13621</v>
+        <v>13619</v>
       </c>
       <c r="F124">
         <v>45188</v>
       </c>
       <c r="G124">
-        <v>0.003961163873</v>
+        <v>0.003960582247</v>
       </c>
       <c r="H124">
-        <v>0.005217951749400001</v>
+        <v>0.0052171855866</v>
       </c>
     </row>
     <row r="125">
@@ -3837,16 +3837,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E126">
-        <v>17337</v>
+        <v>17336</v>
       </c>
       <c r="F126">
         <v>16756</v>
       </c>
       <c r="G126">
-        <v>0.005041824980999999</v>
+        <v>0.005041534168</v>
       </c>
       <c r="H126">
-        <v>0.0066414822318</v>
+        <v>0.006641099150400001</v>
       </c>
     </row>
     <row r="127">
@@ -3889,16 +3889,16 @@
         <v>text/css</v>
       </c>
       <c r="E128">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F128">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G128">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H128">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="129">
@@ -3932,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1187&amp;luid=a6b392da-64c3-98fc-9775-5618317bc668&amp;dnt=true&amp;prev=be1cc3a7-a869-eeb5-4a6c-ea8a83a9e0ab&amp;rnd=66023</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1319&amp;luid=06813a06-5701-2cba-dc5a-07c4eb34a92e&amp;dnt=true&amp;prev=44357fcf-9888-60ea-d836-b79e5e49a7e4&amp;rnd=25742</v>
       </c>
       <c r="C130" t="str">
         <v>Image</v>
@@ -3993,16 +3993,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E132">
-        <v>2099</v>
+        <v>2490</v>
       </c>
       <c r="F132">
         <v>7406</v>
       </c>
       <c r="G132">
-        <v>0.0006104164869999999</v>
+        <v>0.0007241243699999999</v>
       </c>
       <c r="H132">
-        <v>0.0008040878586000002</v>
+        <v>0.0009538726860000002</v>
       </c>
     </row>
     <row r="133">
@@ -4094,16 +4094,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E136">
-        <v>10396</v>
+        <v>25692</v>
       </c>
       <c r="F136">
         <v>25314</v>
       </c>
       <c r="G136">
-        <v>0.0030232919479999997</v>
+        <v>0.0074715675959999995</v>
       </c>
       <c r="H136">
-        <v>0.003982514234400001</v>
+        <v>0.0098421273288</v>
       </c>
     </row>
     <row r="137">
@@ -4146,16 +4146,16 @@
         <v>text/plain</v>
       </c>
       <c r="E138">
-        <v>37062</v>
+        <v>37009</v>
       </c>
       <c r="F138">
-        <v>36808</v>
+        <v>36755</v>
       </c>
       <c r="G138">
-        <v>0.010778111406</v>
+        <v>0.010762698316999999</v>
       </c>
       <c r="H138">
-        <v>0.0141977628468</v>
+        <v>0.0141774595326</v>
       </c>
     </row>
     <row r="139">
@@ -4221,16 +4221,16 @@
         <v>text/css</v>
       </c>
       <c r="E141">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F141">
         <v>1524</v>
       </c>
       <c r="G141">
-        <v>0.00019077332799999997</v>
+        <v>0.00019135495399999998</v>
       </c>
       <c r="H141">
-        <v>0.00025130139840000005</v>
+        <v>0.0002520675612</v>
       </c>
     </row>
     <row r="142">
@@ -4273,16 +4273,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E143">
-        <v>84535</v>
+        <v>84658</v>
       </c>
       <c r="F143">
         <v>269363</v>
       </c>
       <c r="G143">
-        <v>0.024583876954999997</v>
+        <v>0.024619646953999996</v>
       </c>
       <c r="H143">
-        <v>0.032383786149000005</v>
+        <v>0.03243090516120001</v>
       </c>
     </row>
     <row r="144">
@@ -4299,16 +4299,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E144">
-        <v>7980</v>
+        <v>8046</v>
       </c>
       <c r="F144">
         <v>24811</v>
       </c>
       <c r="G144">
-        <v>0.0023206877399999997</v>
+        <v>0.002339881398</v>
       </c>
       <c r="H144">
-        <v>0.003056989572</v>
+        <v>0.0030822729444</v>
       </c>
     </row>
     <row r="145">
@@ -4325,16 +4325,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E145">
-        <v>171076</v>
+        <v>171208</v>
       </c>
       <c r="F145">
         <v>519614</v>
       </c>
       <c r="G145">
-        <v>0.04975112478799999</v>
+        <v>0.04978951210399999</v>
       </c>
       <c r="H145">
-        <v>0.06553603358640002</v>
+        <v>0.0655866003312</v>
       </c>
     </row>
     <row r="146">
@@ -4351,16 +4351,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E146">
-        <v>1381</v>
+        <v>1447</v>
       </c>
       <c r="F146">
         <v>8077</v>
       </c>
       <c r="G146">
-        <v>0.00040161275299999995</v>
+        <v>0.00042080641099999995</v>
       </c>
       <c r="H146">
-        <v>0.0005290354134000001</v>
+        <v>0.0005543187858000001</v>
       </c>
     </row>
     <row r="147">
@@ -4377,16 +4377,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E147">
-        <v>25832</v>
+        <v>25906</v>
       </c>
       <c r="F147">
         <v>85399</v>
       </c>
       <c r="G147">
-        <v>0.007512281415999999</v>
+        <v>0.007533801577999998</v>
       </c>
       <c r="H147">
-        <v>0.0098957587248</v>
+        <v>0.0099241067484</v>
       </c>
     </row>
     <row r="148">
@@ -4403,16 +4403,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E148">
-        <v>6030</v>
+        <v>6121</v>
       </c>
       <c r="F148">
         <v>18740</v>
       </c>
       <c r="G148">
-        <v>0.0017536023899999997</v>
+        <v>0.0017800663729999997</v>
       </c>
       <c r="H148">
-        <v>0.0023099808419999998</v>
+        <v>0.0023448412494000005</v>
       </c>
     </row>
     <row r="149">
@@ -4429,16 +4429,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E149">
-        <v>6699</v>
+        <v>6788</v>
       </c>
       <c r="F149">
         <v>17311</v>
       </c>
       <c r="G149">
-        <v>0.0019481562869999999</v>
+        <v>0.0019740386439999996</v>
       </c>
       <c r="H149">
-        <v>0.0025662622986</v>
+        <v>0.0026003565432</v>
       </c>
     </row>
     <row r="150">
@@ -4455,16 +4455,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E150">
-        <v>1060</v>
+        <v>1128</v>
       </c>
       <c r="F150">
         <v>3352</v>
       </c>
       <c r="G150">
-        <v>0.00030826177999999997</v>
+        <v>0.00032803706399999995</v>
       </c>
       <c r="H150">
-        <v>0.00040606628399999996</v>
+        <v>0.0004321158192</v>
       </c>
     </row>
     <row r="151">
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_8054_1323462261.jpeg%26dh%3D600%26dw%3D800%26cropX%3D0%26cropY%3D991%26cropH%3D621%26cropW%3D828</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D172BFA4F9EFF52996F54D4A85A1B06B1A77A69A9_1588283658.jpg%26dh%3D404%26dw%3D800</v>
       </c>
       <c r="C152" t="str">
         <v>Image</v>
@@ -4507,16 +4507,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E152">
-        <v>15856</v>
+        <v>32233</v>
       </c>
       <c r="F152">
-        <v>15289</v>
+        <v>31658</v>
       </c>
       <c r="G152">
-        <v>0.0046111309279999995</v>
+        <v>0.009373775429</v>
       </c>
       <c r="H152">
-        <v>0.006074138678400001</v>
+        <v>0.012347862766200002</v>
       </c>
     </row>
     <row r="153">
@@ -4524,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="B153" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D837DFFC190DA62C4E4432CF6331E5F81DB7CF72D_1983607418.jpg%26dh%3D517%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFP_historielaget_utvandring_1826371953.png%26dh%3D189%26dw%3D392</v>
       </c>
       <c r="C153" t="str">
         <v>Image</v>
@@ -4533,16 +4533,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E153">
-        <v>25155</v>
+        <v>19048</v>
       </c>
       <c r="F153">
-        <v>24579</v>
+        <v>18473</v>
       </c>
       <c r="G153">
-        <v>0.007315401014999999</v>
+        <v>0.005539406023999999</v>
       </c>
       <c r="H153">
-        <v>0.009636412617</v>
+        <v>0.007296934507200002</v>
       </c>
     </row>
     <row r="154">
@@ -4550,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="B154" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DFP_historielaget_utvandring_1826371953.png%26dh%3D189%26dw%3D392</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_8054_1323462261.jpeg%26dh%3D600%26dw%3D800%26cropX%3D0%26cropY%3D991%26cropH%3D621%26cropW%3D828</v>
       </c>
       <c r="C154" t="str">
         <v>Image</v>
@@ -4559,16 +4559,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E154">
-        <v>19048</v>
+        <v>15856</v>
       </c>
       <c r="F154">
-        <v>18473</v>
+        <v>15289</v>
       </c>
       <c r="G154">
-        <v>0.005539406023999999</v>
+        <v>0.0046111309279999995</v>
       </c>
       <c r="H154">
-        <v>0.007296934507200002</v>
+        <v>0.006074138678400001</v>
       </c>
     </row>
   </sheetData>
@@ -4607,10 +4607,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>384975</v>
+        <v>384873</v>
       </c>
       <c r="D2">
-        <v>383865</v>
+        <v>383763</v>
       </c>
     </row>
     <row r="3">
@@ -4621,7 +4621,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>227577</v>
+        <v>227419</v>
       </c>
       <c r="D3">
         <v>1366155</v>
@@ -4635,7 +4635,7 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>3330944</v>
+        <v>3331334</v>
       </c>
       <c r="D4">
         <v>11729586</v>
@@ -4663,10 +4663,10 @@
         <v>45</v>
       </c>
       <c r="C6">
-        <v>771447</v>
+        <v>809051</v>
       </c>
       <c r="D6">
-        <v>769602</v>
+        <v>790839</v>
       </c>
     </row>
     <row r="7">
@@ -4677,10 +4677,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>174000</v>
+        <v>214605</v>
       </c>
       <c r="D7">
-        <v>2278749</v>
+        <v>2954817</v>
       </c>
     </row>
     <row r="8">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>133420</v>
+        <v>133261</v>
       </c>
       <c r="D9">
-        <v>197277</v>
+        <v>197118</v>
       </c>
     </row>
     <row r="10">
@@ -4772,13 +4772,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1723710</v>
+        <v>1745314</v>
       </c>
       <c r="C2">
-        <v>0.50127727623</v>
+        <v>0.5075600002819999</v>
       </c>
       <c r="D2">
-        <v>0.6603212399940002</v>
+        <v>0.6685973305596001</v>
       </c>
     </row>
     <row r="3">
@@ -4786,13 +4786,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1725110</v>
+        <v>1744765</v>
       </c>
       <c r="C3">
-        <v>0.5016844144299999</v>
+        <v>0.507400343945</v>
       </c>
       <c r="D3">
-        <v>0.6608575539540001</v>
+        <v>0.668387018871</v>
       </c>
     </row>
     <row r="4">
@@ -4800,13 +4800,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1708720</v>
+        <v>1745641</v>
       </c>
       <c r="C4">
-        <v>0.4969179893599999</v>
+        <v>0.507655096133</v>
       </c>
       <c r="D4">
-        <v>0.654578849808</v>
+        <v>0.6687225981774002</v>
       </c>
     </row>
     <row r="5">
@@ -4814,13 +4814,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1723710</v>
+        <v>1745314</v>
       </c>
       <c r="C5">
-        <v>0.50127727623</v>
+        <v>0.5075600002819999</v>
       </c>
       <c r="D5">
-        <v>0.6603212399940002</v>
+        <v>0.6685973305596001</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nes.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nes.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6296.551000000001</v>
+        <v>6473.611499999999</v>
       </c>
       <c r="C2">
-        <v>4640.376000000001</v>
+        <v>4902.9815</v>
       </c>
       <c r="D2">
-        <v>735</v>
+        <v>679</v>
       </c>
       <c r="E2">
-        <v>10360.611200000001</v>
+        <v>10491.864625000002</v>
       </c>
       <c r="F2">
-        <v>115.5</v>
+        <v>172.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5421.605305681933</v>
+        <v>5370.876266706431</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2">
-        <v>1745314</v>
+        <v>1744470</v>
       </c>
       <c r="K2">
         <v>51</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6553.4915</v>
+        <v>6520.593000000001</v>
       </c>
       <c r="C3">
-        <v>4875.2895</v>
+        <v>4673.2085</v>
       </c>
       <c r="D3">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="E3">
-        <v>10451.875849999999</v>
+        <v>10476.641000000001</v>
       </c>
       <c r="F3">
-        <v>138</v>
+        <v>179.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5620.888552763042</v>
+        <v>5027.376717107992</v>
       </c>
       <c r="I3">
         <v>62</v>
       </c>
       <c r="J3">
-        <v>1744765</v>
+        <v>1744148</v>
       </c>
       <c r="K3">
         <v>51</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6591.086500000001</v>
+        <v>7159.4985</v>
       </c>
       <c r="C4">
-        <v>4915.289499999999</v>
+        <v>5102.9205</v>
       </c>
       <c r="D4">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="E4">
-        <v>10601.931700000001</v>
+        <v>10827.080225000002</v>
       </c>
       <c r="F4">
-        <v>185.5</v>
+        <v>344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5373.672023608579</v>
+        <v>5734.907119832287</v>
       </c>
       <c r="I4">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J4">
-        <v>1745641</v>
+        <v>1744483</v>
       </c>
       <c r="K4">
         <v>51</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6553.4915</v>
+        <v>6520.593000000001</v>
       </c>
       <c r="C5">
-        <v>4875.2895</v>
+        <v>4902.9815</v>
       </c>
       <c r="D5">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="E5">
-        <v>10451.875849999999</v>
+        <v>10491.864625000002</v>
       </c>
       <c r="F5">
-        <v>138</v>
+        <v>179.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5421.605305681933</v>
+        <v>5370.876266706431</v>
       </c>
       <c r="I5">
         <v>62</v>
       </c>
       <c r="J5">
-        <v>1745314</v>
+        <v>1744470</v>
       </c>
       <c r="K5">
         <v>51</v>
@@ -865,16 +865,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E11">
-        <v>114189</v>
+        <v>114247</v>
       </c>
       <c r="F11">
         <v>113563</v>
       </c>
       <c r="G11">
-        <v>0.033207645657</v>
+        <v>0.033224512810999994</v>
       </c>
       <c r="H11">
-        <v>0.043743681984600005</v>
+        <v>0.043765900705800005</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +891,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E12">
-        <v>19087</v>
+        <v>19086</v>
       </c>
       <c r="F12">
         <v>62428</v>
       </c>
       <c r="G12">
-        <v>0.005550747730999999</v>
+        <v>0.005550456917999999</v>
       </c>
       <c r="H12">
-        <v>0.0073118746818000005</v>
+        <v>0.007311491600400002</v>
       </c>
     </row>
     <row r="13">
@@ -1151,16 +1151,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E22">
-        <v>13612</v>
+        <v>13617</v>
       </c>
       <c r="F22">
         <v>45188</v>
       </c>
       <c r="G22">
-        <v>0.003958546555999999</v>
+        <v>0.003960000621</v>
       </c>
       <c r="H22">
-        <v>0.0052145040168</v>
+        <v>0.0052164194238</v>
       </c>
     </row>
     <row r="23">
@@ -1203,16 +1203,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>17337</v>
+        <v>17100</v>
       </c>
       <c r="F24">
         <v>16756</v>
       </c>
       <c r="G24">
-        <v>0.005041824980999999</v>
+        <v>0.004972902299999999</v>
       </c>
       <c r="H24">
-        <v>0.0066414822318</v>
+        <v>0.0065506919400000006</v>
       </c>
     </row>
     <row r="25">
@@ -1229,16 +1229,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>15209</v>
+        <v>14972</v>
       </c>
       <c r="F25">
         <v>14637</v>
       </c>
       <c r="G25">
-        <v>0.004422974916999999</v>
+        <v>0.004354052235999999</v>
       </c>
       <c r="H25">
-        <v>0.0058262850126</v>
+        <v>0.005735494720800001</v>
       </c>
     </row>
     <row r="26">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1315&amp;luid=8c069cd8-e054-f1d8-acf6-37d4a9a2fc67&amp;dnt=true&amp;prev=48d007ee-e5de-8896-4cd8-049a0c975117&amp;rnd=95156</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1279&amp;luid=34cb8448-f9c1-d53d-9cb4-b50ebd8655c6&amp;dnt=true&amp;prev=83b60ea9-9c4f-0270-c9c1-4c847d6fb6f7&amp;rnd=60442</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1434,16 +1434,16 @@
         <v>text/json</v>
       </c>
       <c r="E33">
-        <v>7411</v>
+        <v>7412</v>
       </c>
       <c r="F33">
         <v>28951</v>
       </c>
       <c r="G33">
-        <v>0.0021552151429999997</v>
+        <v>0.0021555059559999995</v>
       </c>
       <c r="H33">
-        <v>0.0028390162554</v>
+        <v>0.0028393993368000005</v>
       </c>
     </row>
     <row r="34">
@@ -1512,16 +1512,16 @@
         <v>text/plain</v>
       </c>
       <c r="E36">
-        <v>37009</v>
+        <v>36945</v>
       </c>
       <c r="F36">
-        <v>36755</v>
+        <v>36691</v>
       </c>
       <c r="G36">
-        <v>0.010762698316999999</v>
+        <v>0.010744086284999997</v>
       </c>
       <c r="H36">
-        <v>0.0141774595326</v>
+        <v>0.014152942323</v>
       </c>
     </row>
     <row r="37">
@@ -1639,16 +1639,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E41">
-        <v>84635</v>
+        <v>84634</v>
       </c>
       <c r="F41">
         <v>269363</v>
       </c>
       <c r="G41">
-        <v>0.024612958254999998</v>
+        <v>0.024612667441999997</v>
       </c>
       <c r="H41">
-        <v>0.032422094289</v>
+        <v>0.032421711207600006</v>
       </c>
     </row>
     <row r="42">
@@ -1691,16 +1691,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E43">
-        <v>171231</v>
+        <v>171230</v>
       </c>
       <c r="F43">
         <v>519614</v>
       </c>
       <c r="G43">
-        <v>0.04979620080299999</v>
+        <v>0.04979590999</v>
       </c>
       <c r="H43">
-        <v>0.06559541120340001</v>
+        <v>0.06559502812200001</v>
       </c>
     </row>
     <row r="44">
@@ -1717,16 +1717,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E44">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F44">
         <v>8077</v>
       </c>
       <c r="G44">
-        <v>0.00042080641099999995</v>
+        <v>0.00042051559799999994</v>
       </c>
       <c r="H44">
-        <v>0.0005543187858000001</v>
+        <v>0.0005539357044000001</v>
       </c>
     </row>
     <row r="45">
@@ -1743,16 +1743,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E45">
-        <v>25832</v>
+        <v>25906</v>
       </c>
       <c r="F45">
         <v>85399</v>
       </c>
       <c r="G45">
-        <v>0.007512281415999999</v>
+        <v>0.007533801577999998</v>
       </c>
       <c r="H45">
-        <v>0.0098957587248</v>
+        <v>0.0099241067484</v>
       </c>
     </row>
     <row r="46">
@@ -1769,16 +1769,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E46">
-        <v>6030</v>
+        <v>6092</v>
       </c>
       <c r="F46">
         <v>18740</v>
       </c>
       <c r="G46">
-        <v>0.0017536023899999997</v>
+        <v>0.0017716327959999998</v>
       </c>
       <c r="H46">
-        <v>0.0023099808419999998</v>
+        <v>0.0023337318888</v>
       </c>
     </row>
     <row r="47">
@@ -1795,16 +1795,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E47">
-        <v>6699</v>
+        <v>6788</v>
       </c>
       <c r="F47">
         <v>17311</v>
       </c>
       <c r="G47">
-        <v>0.0019481562869999999</v>
+        <v>0.0019740386439999996</v>
       </c>
       <c r="H47">
-        <v>0.0025662622986</v>
+        <v>0.0026003565432</v>
       </c>
     </row>
     <row r="48">
@@ -1821,16 +1821,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E48">
-        <v>1060</v>
+        <v>1128</v>
       </c>
       <c r="F48">
         <v>3352</v>
       </c>
       <c r="G48">
-        <v>0.00030826177999999997</v>
+        <v>0.00032803706399999995</v>
       </c>
       <c r="H48">
-        <v>0.00040606628399999996</v>
+        <v>0.0004321158192</v>
       </c>
     </row>
     <row r="49">
@@ -1873,16 +1873,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E50">
-        <v>32234</v>
+        <v>32015</v>
       </c>
       <c r="F50">
         <v>31658</v>
       </c>
       <c r="G50">
-        <v>0.009374066241999999</v>
+        <v>0.009310378194999998</v>
       </c>
       <c r="H50">
-        <v>0.0123482458476</v>
+        <v>0.012264351021</v>
       </c>
     </row>
     <row r="51">
@@ -1899,16 +1899,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E51">
-        <v>19048</v>
+        <v>18835</v>
       </c>
       <c r="F51">
         <v>18473</v>
       </c>
       <c r="G51">
-        <v>0.005539406023999999</v>
+        <v>0.005477462854999999</v>
       </c>
       <c r="H51">
-        <v>0.007296934507200002</v>
+        <v>0.007215338169</v>
       </c>
     </row>
     <row r="52">
@@ -1925,16 +1925,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E52">
-        <v>15856</v>
+        <v>15629</v>
       </c>
       <c r="F52">
         <v>15289</v>
       </c>
       <c r="G52">
-        <v>0.0046111309279999995</v>
+        <v>0.004545116376999999</v>
       </c>
       <c r="H52">
-        <v>0.006074138678400001</v>
+        <v>0.0059871792006000015</v>
       </c>
     </row>
     <row r="53">
@@ -2182,16 +2182,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E62">
-        <v>114188</v>
+        <v>114247</v>
       </c>
       <c r="F62">
         <v>113563</v>
       </c>
       <c r="G62">
-        <v>0.033207354843999996</v>
+        <v>0.033224512810999994</v>
       </c>
       <c r="H62">
-        <v>0.0437432989032</v>
+        <v>0.043765900705800005</v>
       </c>
     </row>
     <row r="63">
@@ -2520,16 +2520,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>17336</v>
+        <v>17124</v>
       </c>
       <c r="F75">
         <v>16756</v>
       </c>
       <c r="G75">
-        <v>0.005041534168</v>
+        <v>0.004979881812</v>
       </c>
       <c r="H75">
-        <v>0.006641099150400001</v>
+        <v>0.006559885893600001</v>
       </c>
     </row>
     <row r="76">
@@ -2546,16 +2546,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E76">
-        <v>15208</v>
+        <v>14981</v>
       </c>
       <c r="F76">
         <v>14637</v>
       </c>
       <c r="G76">
-        <v>0.004422684103999999</v>
+        <v>0.004356669552999999</v>
       </c>
       <c r="H76">
-        <v>0.005825901931200001</v>
+        <v>0.0057389424534</v>
       </c>
     </row>
     <row r="77">
@@ -2598,16 +2598,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E78">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F78">
         <v>1249958</v>
       </c>
       <c r="G78">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H78">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="79">
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1262&amp;luid=d37ac98e-9b0c-6743-8180-8e1d1f7e4a1f&amp;dnt=true&amp;prev=e30a8638-62d4-cef3-2a85-abda0bed8a24&amp;rnd=27959</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1338&amp;luid=a267c6ea-3311-2800-69c4-d74ae729f866&amp;dnt=true&amp;prev=da8d7041-b071-670b-eb6e-cccf9f261ae1&amp;rnd=52194</v>
       </c>
       <c r="C79" t="str">
         <v>Image</v>
@@ -2751,16 +2751,16 @@
         <v>text/json</v>
       </c>
       <c r="E84">
-        <v>7411</v>
+        <v>7412</v>
       </c>
       <c r="F84">
         <v>28951</v>
       </c>
       <c r="G84">
-        <v>0.0021552151429999997</v>
+        <v>0.0021555059559999995</v>
       </c>
       <c r="H84">
-        <v>0.0028390162554</v>
+        <v>0.0028393993368000005</v>
       </c>
     </row>
     <row r="85">
@@ -2829,16 +2829,16 @@
         <v>text/plain</v>
       </c>
       <c r="E87">
-        <v>37009</v>
+        <v>36945</v>
       </c>
       <c r="F87">
-        <v>36755</v>
+        <v>36691</v>
       </c>
       <c r="G87">
-        <v>0.010762698316999999</v>
+        <v>0.010744086284999997</v>
       </c>
       <c r="H87">
-        <v>0.0141774595326</v>
+        <v>0.014152942323</v>
       </c>
     </row>
     <row r="88">
@@ -2904,16 +2904,16 @@
         <v>text/css</v>
       </c>
       <c r="E90">
-        <v>560</v>
+        <v>658</v>
       </c>
       <c r="F90">
         <v>1524</v>
       </c>
       <c r="G90">
-        <v>0.00016285528</v>
+        <v>0.00019135495399999998</v>
       </c>
       <c r="H90">
-        <v>0.00021452558400000002</v>
+        <v>0.0002520675612</v>
       </c>
     </row>
     <row r="91">
@@ -2930,16 +2930,16 @@
         <v>text/css</v>
       </c>
       <c r="E91">
-        <v>3230</v>
+        <v>3296</v>
       </c>
       <c r="F91">
         <v>12720</v>
       </c>
       <c r="G91">
-        <v>0.0009393259899999999</v>
+        <v>0.0009585196479999999</v>
       </c>
       <c r="H91">
-        <v>0.0012373529220000002</v>
+        <v>0.0012626362944000002</v>
       </c>
     </row>
     <row r="92">
@@ -2956,16 +2956,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E92">
-        <v>84535</v>
+        <v>84658</v>
       </c>
       <c r="F92">
         <v>269363</v>
       </c>
       <c r="G92">
-        <v>0.024583876954999997</v>
+        <v>0.024619646953999996</v>
       </c>
       <c r="H92">
-        <v>0.032383786149000005</v>
+        <v>0.03243090516120001</v>
       </c>
     </row>
     <row r="93">
@@ -2982,16 +2982,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E93">
-        <v>7980</v>
+        <v>8046</v>
       </c>
       <c r="F93">
         <v>24811</v>
       </c>
       <c r="G93">
-        <v>0.0023206877399999997</v>
+        <v>0.002339881398</v>
       </c>
       <c r="H93">
-        <v>0.003056989572</v>
+        <v>0.0030822729444</v>
       </c>
     </row>
     <row r="94">
@@ -3008,16 +3008,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E94">
-        <v>171076</v>
+        <v>171207</v>
       </c>
       <c r="F94">
         <v>519614</v>
       </c>
       <c r="G94">
-        <v>0.04975112478799999</v>
+        <v>0.04978922129099999</v>
       </c>
       <c r="H94">
-        <v>0.06553603358640002</v>
+        <v>0.0655862172498</v>
       </c>
     </row>
     <row r="95">
@@ -3190,16 +3190,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>32233</v>
+        <v>32038</v>
       </c>
       <c r="F101">
         <v>31658</v>
       </c>
       <c r="G101">
-        <v>0.009373775429</v>
+        <v>0.009317066894</v>
       </c>
       <c r="H101">
-        <v>0.012347862766200002</v>
+        <v>0.0122731618932</v>
       </c>
     </row>
     <row r="102">
@@ -3216,16 +3216,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>19048</v>
+        <v>18812</v>
       </c>
       <c r="F102">
         <v>18473</v>
       </c>
       <c r="G102">
-        <v>0.005539406023999999</v>
+        <v>0.005470774155999999</v>
       </c>
       <c r="H102">
-        <v>0.007296934507200002</v>
+        <v>0.007206527296799999</v>
       </c>
     </row>
     <row r="103">
@@ -3242,16 +3242,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>15856</v>
+        <v>15620</v>
       </c>
       <c r="F103">
         <v>15289</v>
       </c>
       <c r="G103">
-        <v>0.0046111309279999995</v>
+        <v>0.004542499059999999</v>
       </c>
       <c r="H103">
-        <v>0.006074138678400001</v>
+        <v>0.0059837314680000015</v>
       </c>
     </row>
     <row r="104">
@@ -3424,16 +3424,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E110">
-        <v>320871</v>
+        <v>320844</v>
       </c>
       <c r="F110">
         <v>1229307</v>
       </c>
       <c r="G110">
-        <v>0.09331345812299999</v>
+        <v>0.093305606172</v>
       </c>
       <c r="H110">
-        <v>0.12291971189940003</v>
+        <v>0.12290936870160002</v>
       </c>
     </row>
     <row r="111">
@@ -3499,16 +3499,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E113">
-        <v>114189</v>
+        <v>114247</v>
       </c>
       <c r="F113">
         <v>113563</v>
       </c>
       <c r="G113">
-        <v>0.033207645657</v>
+        <v>0.033224512810999994</v>
       </c>
       <c r="H113">
-        <v>0.043743681984600005</v>
+        <v>0.043765900705800005</v>
       </c>
     </row>
     <row r="114">
@@ -3837,16 +3837,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E126">
-        <v>17336</v>
+        <v>17100</v>
       </c>
       <c r="F126">
         <v>16756</v>
       </c>
       <c r="G126">
-        <v>0.005041534168</v>
+        <v>0.004972902299999999</v>
       </c>
       <c r="H126">
-        <v>0.006641099150400001</v>
+        <v>0.0065506919400000006</v>
       </c>
     </row>
     <row r="127">
@@ -3863,16 +3863,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E127">
-        <v>15208</v>
+        <v>15004</v>
       </c>
       <c r="F127">
         <v>14637</v>
       </c>
       <c r="G127">
-        <v>0.004422684103999999</v>
+        <v>0.004363358251999999</v>
       </c>
       <c r="H127">
-        <v>0.005825901931200001</v>
+        <v>0.0057477533256000005</v>
       </c>
     </row>
     <row r="128">
@@ -3915,16 +3915,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E129">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F129">
         <v>1249958</v>
       </c>
       <c r="G129">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H129">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="130">
@@ -3932,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1319&amp;luid=06813a06-5701-2cba-dc5a-07c4eb34a92e&amp;dnt=true&amp;prev=44357fcf-9888-60ea-d836-b79e5e49a7e4&amp;rnd=25742</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.nes.kommune.no%2F&amp;title=Forsiden%20-%20nes%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1696&amp;luid=9a68d3b9-8389-23fa-fdc3-05718a7bf4ef&amp;dnt=true&amp;prev=5414d78f-e8f5-2b35-e6d9-7a445eab6018&amp;rnd=92714</v>
       </c>
       <c r="C130" t="str">
         <v>Image</v>
@@ -4146,16 +4146,16 @@
         <v>text/plain</v>
       </c>
       <c r="E138">
-        <v>37009</v>
+        <v>36945</v>
       </c>
       <c r="F138">
-        <v>36755</v>
+        <v>36691</v>
       </c>
       <c r="G138">
-        <v>0.010762698316999999</v>
+        <v>0.010744086284999997</v>
       </c>
       <c r="H138">
-        <v>0.0141774595326</v>
+        <v>0.014152942323</v>
       </c>
     </row>
     <row r="139">
@@ -4273,16 +4273,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E143">
-        <v>84658</v>
+        <v>84634</v>
       </c>
       <c r="F143">
         <v>269363</v>
       </c>
       <c r="G143">
-        <v>0.024619646953999996</v>
+        <v>0.024612667441999997</v>
       </c>
       <c r="H143">
-        <v>0.03243090516120001</v>
+        <v>0.032421711207600006</v>
       </c>
     </row>
     <row r="144">
@@ -4325,16 +4325,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E145">
-        <v>171208</v>
+        <v>171231</v>
       </c>
       <c r="F145">
         <v>519614</v>
       </c>
       <c r="G145">
-        <v>0.04978951210399999</v>
+        <v>0.04979620080299999</v>
       </c>
       <c r="H145">
-        <v>0.0655866003312</v>
+        <v>0.06559541120340001</v>
       </c>
     </row>
     <row r="146">
@@ -4403,16 +4403,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E148">
-        <v>6121</v>
+        <v>6092</v>
       </c>
       <c r="F148">
         <v>18740</v>
       </c>
       <c r="G148">
-        <v>0.0017800663729999997</v>
+        <v>0.0017716327959999998</v>
       </c>
       <c r="H148">
-        <v>0.0023448412494000005</v>
+        <v>0.0023337318888</v>
       </c>
     </row>
     <row r="149">
@@ -4429,16 +4429,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E149">
-        <v>6788</v>
+        <v>6783</v>
       </c>
       <c r="F149">
         <v>17311</v>
       </c>
       <c r="G149">
-        <v>0.0019740386439999996</v>
+        <v>0.0019725845789999997</v>
       </c>
       <c r="H149">
-        <v>0.0026003565432</v>
+        <v>0.0025984411362000004</v>
       </c>
     </row>
     <row r="150">
@@ -4507,16 +4507,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E152">
-        <v>32233</v>
+        <v>32015</v>
       </c>
       <c r="F152">
         <v>31658</v>
       </c>
       <c r="G152">
-        <v>0.009373775429</v>
+        <v>0.009310378194999998</v>
       </c>
       <c r="H152">
-        <v>0.012347862766200002</v>
+        <v>0.012264351021</v>
       </c>
     </row>
     <row r="153">
@@ -4533,16 +4533,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E153">
-        <v>19048</v>
+        <v>18834</v>
       </c>
       <c r="F153">
         <v>18473</v>
       </c>
       <c r="G153">
-        <v>0.005539406023999999</v>
+        <v>0.005477172042</v>
       </c>
       <c r="H153">
-        <v>0.007296934507200002</v>
+        <v>0.0072149550876000005</v>
       </c>
     </row>
     <row r="154">
@@ -4559,16 +4559,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E154">
-        <v>15856</v>
+        <v>15629</v>
       </c>
       <c r="F154">
         <v>15289</v>
       </c>
       <c r="G154">
-        <v>0.0046111309279999995</v>
+        <v>0.004545116376999999</v>
       </c>
       <c r="H154">
-        <v>0.006074138678400001</v>
+        <v>0.0059871792006000015</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4621,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>227419</v>
+        <v>227583</v>
       </c>
       <c r="D3">
         <v>1366155</v>
@@ -4635,7 +4635,7 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>3331334</v>
+        <v>3331904</v>
       </c>
       <c r="D4">
         <v>11729586</v>
@@ -4663,7 +4663,7 @@
         <v>45</v>
       </c>
       <c r="C6">
-        <v>809051</v>
+        <v>805888</v>
       </c>
       <c r="D6">
         <v>790839</v>
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>133261</v>
+        <v>133071</v>
       </c>
       <c r="D9">
-        <v>197118</v>
+        <v>196926</v>
       </c>
     </row>
     <row r="10">
@@ -4772,13 +4772,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1745314</v>
+        <v>1744470</v>
       </c>
       <c r="C2">
-        <v>0.5075600002819999</v>
+        <v>0.5073145541099999</v>
       </c>
       <c r="D2">
-        <v>0.6685973305596001</v>
+        <v>0.6682740098580001</v>
       </c>
     </row>
     <row r="3">
@@ -4786,13 +4786,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1744765</v>
+        <v>1744148</v>
       </c>
       <c r="C3">
-        <v>0.507400343945</v>
+        <v>0.5072209123239999</v>
       </c>
       <c r="D3">
-        <v>0.668387018871</v>
+        <v>0.6681506576472002</v>
       </c>
     </row>
     <row r="4">
@@ -4800,13 +4800,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1745641</v>
+        <v>1744483</v>
       </c>
       <c r="C4">
-        <v>0.507655096133</v>
+        <v>0.507318334679</v>
       </c>
       <c r="D4">
-        <v>0.6687225981774002</v>
+        <v>0.6682789899162</v>
       </c>
     </row>
     <row r="5">
@@ -4814,13 +4814,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1745314</v>
+        <v>1744470</v>
       </c>
       <c r="C5">
-        <v>0.5075600002819999</v>
+        <v>0.5073145541099999</v>
       </c>
       <c r="D5">
-        <v>0.6685973305596001</v>
+        <v>0.6682740098580001</v>
       </c>
     </row>
   </sheetData>
